--- a/metadataschemas/FAIR4FOIS Semantic Artefact Metadata Schema.xlsx
+++ b/metadataschemas/FAIR4FOIS Semantic Artefact Metadata Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luiz/Documents/GitHub/fair4fois/metadataschemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6719E4D-B2E3-614E-8BA5-309C5E905BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2208554-97C6-A042-AC9D-8AF06F334CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{1FD0E56F-4622-7F4A-B90A-35A31D9FEDD4}"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{1FD0E56F-4622-7F4A-B90A-35A31D9FEDD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -494,27 +494,28 @@
             <rFont val="Arial"/>
             <family val="34"/>
           </rPr>
-          <t>The URL of the downloadable file in a given format.</t>
-        </r>
-        <r>
-          <rPr>
+          <t xml:space="preserve">The URL of the downloadable file in a given format.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <i/>
+          <t>Should</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="34"/>
           </rPr>
-          <t>Should</t>
+          <t xml:space="preserve"> be used for the URL at which this distribution is available directly, typically through a HTTP Get request.
+</t>
         </r>
         <r>
           <rPr>
@@ -523,7 +524,8 @@
             <rFont val="Arial"/>
             <family val="34"/>
           </rPr>
-          <t> be used for the URL at which this distribution is available directly, typically through a HTTP Get request.</t>
+          <t xml:space="preserve">Either Access URL or Download URL must be provided.
+</t>
         </r>
         <r>
           <rPr>
@@ -532,27 +534,7 @@
             <rFont val="Arial"/>
             <family val="34"/>
           </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="34"/>
-          </rPr>
-          <t>Either Access URL or Download URL must be provided.</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="34"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+          <t>The URL can also be the identifier of the semantic artefact. In this case, please use a globally unique and persistent identifier such as DOI, W3ID, PURL, etc.</t>
         </r>
       </text>
     </comment>
@@ -1603,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D01ED1E-E282-1747-9074-FEF158706663}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1757,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C3577-6738-3145-9D80-E5F8675FAE47}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
